--- a/RAPIQUE-main (Matlab) and All Results/result/all_combined_results.xlsx
+++ b/RAPIQUE-main (Matlab) and All Results/result/all_combined_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\RAPIQUE_proyecto\RAPIQUE-project\RAPIQUE-VideoQualityAssessment\RAPIQUE-main\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABFE0DF-E269-497E-9FA8-C798A44F6106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF51938B-4400-4CE7-90F9-23E3CE9C1473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{ED7B941F-B730-4078-BC52-EAB96B787FB3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="21">
   <si>
     <t>Training results</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>RAPIQUE C++</t>
+  </si>
+  <si>
+    <t>VIVALDE</t>
+  </si>
+  <si>
+    <t>nr-vqa-consumervideo</t>
+  </si>
+  <si>
+    <t>MDTVSFA</t>
+  </si>
+  <si>
+    <t>VSFA</t>
   </si>
 </sst>
 </file>
@@ -194,6 +206,66 @@
     <tableColumn id="4" xr3:uid="{D5B4DD17-6301-4C91-9535-24A52413A091}" name="Testing results"/>
     <tableColumn id="5" xr3:uid="{B2E561C5-DDA2-46AF-AA67-CBA70B7875C6}" name="Average test"/>
     <tableColumn id="6" xr3:uid="{899CB5D5-71B2-41D2-9354-9E2065DEDFFD}" name="Std test"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AAAAEFA0-0F48-4F17-82F4-66D08F55C353}" name="Tabla2451034" displayName="Tabla2451034" ref="H2:M6" totalsRowShown="0">
+  <autoFilter ref="H2:M6" xr:uid="{AAAAEFA0-0F48-4F17-82F4-66D08F55C353}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7A2898C0-20F3-4E1D-901A-A94DA6703DFF}" name="Training results"/>
+    <tableColumn id="2" xr3:uid="{1408D560-5033-4067-87B7-894C5C212C68}" name="Average train"/>
+    <tableColumn id="3" xr3:uid="{1687CC99-B0AD-41E6-9059-7A3C4054ADC2}" name="Std train"/>
+    <tableColumn id="4" xr3:uid="{70E53EFB-F030-493A-8D60-658A393A85E6}" name="Testing results"/>
+    <tableColumn id="5" xr3:uid="{BD10C8A9-2C0C-4F23-B7B9-A63D43B819F3}" name="Average test"/>
+    <tableColumn id="6" xr3:uid="{8BC8BF85-B4D1-44ED-8373-D031D05F01B7}" name="Std test"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{79681A15-3569-474C-BC3F-6DC02C4B05B6}" name="Tabla24510345" displayName="Tabla24510345" ref="H10:M14" totalsRowShown="0">
+  <autoFilter ref="H10:M14" xr:uid="{79681A15-3569-474C-BC3F-6DC02C4B05B6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{C7D61769-2EDB-4401-B065-1A246C7379B5}" name="Training results"/>
+    <tableColumn id="2" xr3:uid="{1152CDBE-4686-4AB3-B53D-7C1F9389C144}" name="Average train"/>
+    <tableColumn id="3" xr3:uid="{ACE98DB4-B524-40CC-ACF7-830DAEE3479C}" name="Std train"/>
+    <tableColumn id="4" xr3:uid="{68F5A9BA-5996-4E30-88DA-4218966E37F5}" name="Testing results"/>
+    <tableColumn id="5" xr3:uid="{59CD6A0A-8139-4C84-A429-31C0DCABA313}" name="Average test"/>
+    <tableColumn id="6" xr3:uid="{79D1DFB4-F3E9-42C2-81B4-941F09633128}" name="Std test"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE31BEC8-ACBB-443D-9A10-6F1D8B79ABD9}" name="Tabla24510346" displayName="Tabla24510346" ref="O2:T6" totalsRowShown="0">
+  <autoFilter ref="O2:T6" xr:uid="{FE31BEC8-ACBB-443D-9A10-6F1D8B79ABD9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B9D5722B-19E0-42F9-A438-38CFD9C594BE}" name="Training results"/>
+    <tableColumn id="2" xr3:uid="{64A9B4B4-3167-4231-872D-82448DD2890C}" name="Average train"/>
+    <tableColumn id="3" xr3:uid="{54527085-0856-495D-AF83-F34A1767CDC3}" name="Std train"/>
+    <tableColumn id="4" xr3:uid="{CCB5B75C-30F6-429A-BF02-AF5E20EB83C0}" name="Testing results"/>
+    <tableColumn id="5" xr3:uid="{F8B8EFD5-AAF2-4F49-9C7B-3AAD6D90173D}" name="Average test"/>
+    <tableColumn id="6" xr3:uid="{1E3C5B9C-4C91-47C5-9A4A-E54E04A4FFE6}" name="Std test"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F91873F8-B7F5-49AE-B4CE-2BDF330DC474}" name="Tabla245103457" displayName="Tabla245103457" ref="O10:T14" totalsRowShown="0">
+  <autoFilter ref="O10:T14" xr:uid="{F91873F8-B7F5-49AE-B4CE-2BDF330DC474}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{AC841A06-7387-42D7-91BD-BCB6BAD9C45B}" name="Training results"/>
+    <tableColumn id="2" xr3:uid="{9DF00B1E-A860-4259-B892-A6BCC6FEDF00}" name="Average train"/>
+    <tableColumn id="3" xr3:uid="{625E33CE-6957-443C-8402-ADEFA561F244}" name="Std train"/>
+    <tableColumn id="4" xr3:uid="{CD86B6ED-2CC9-4113-BE0A-ACB0FD494805}" name="Testing results"/>
+    <tableColumn id="5" xr3:uid="{38FA42FE-D613-413A-B656-A5A786948A9E}" name="Average test"/>
+    <tableColumn id="6" xr3:uid="{4B98C3BB-BD80-4071-BB79-0CE78B2BA128}" name="Std test"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -516,15 +588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61EE6F49-7C99-4B44-914D-329FA6E60174}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -540,8 +612,38 @@
         <f>PRODUCT(E1,1/3600)</f>
         <v>4.7141666666666664</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="1">
+        <v>91468.158425999995</v>
+      </c>
+      <c r="M1" s="2">
+        <f>PRODUCT(L1,1/3600)</f>
+        <v>25.407821784999999</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="1">
+        <v>7680</v>
+      </c>
+      <c r="T1" s="2">
+        <f>PRODUCT(S1,1/3600)</f>
+        <v>2.1333333333333333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -560,8 +662,44 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -580,8 +718,35 @@
       <c r="F3">
         <v>6.80128001799086E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>0.94170709508782702</v>
+      </c>
+      <c r="J3">
+        <v>8.5198622647874006E-2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>0.63362804080173096</v>
+      </c>
+      <c r="M3">
+        <v>8.6532113542264005E-2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>0.76735332030290004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -600,8 +765,35 @@
       <c r="F4">
         <v>5.8977130151853997E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0.83638405940136096</v>
+      </c>
+      <c r="J4">
+        <v>0.14172393632925001</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>0.44850783990339899</v>
+      </c>
+      <c r="M4">
+        <v>6.9470541106526701E-2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4">
+        <v>0.56954181711333396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -620,8 +812,36 @@
       <c r="F5">
         <v>8.59845519732301E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>0.94389208668490399</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.117043180809893</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>0.65275227543511305</v>
+      </c>
+      <c r="M5">
+        <v>9.6232981329063896E-2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5">
+        <v>0.79748507441053995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -640,8 +860,39 @@
       <c r="F6">
         <v>1.9709707525975999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>10.295289727595099</v>
+      </c>
+      <c r="J6">
+        <v>7.5664572446058296</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>22.798271909812101</v>
+      </c>
+      <c r="M6">
+        <v>3.5458589591146401</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6">
+        <v>25.9089285043434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -657,8 +908,38 @@
         <f>PRODUCT(E9,1/3600)</f>
         <v>3.2117024936111114</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="1">
+        <v>46852.194382000001</v>
+      </c>
+      <c r="M9" s="2">
+        <f>PRODUCT(L9,1/3600)</f>
+        <v>13.014498439444445</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="1">
+        <v>11220</v>
+      </c>
+      <c r="T9" s="2">
+        <f>PRODUCT(S9,1/3600)</f>
+        <v>3.1166666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -677,8 +958,44 @@
       <c r="F10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -697,8 +1014,29 @@
       <c r="F11">
         <v>0.116901290863726</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>0.50901189650880496</v>
+      </c>
+      <c r="M11">
+        <v>0.10941166359755</v>
+      </c>
+      <c r="O11" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>0.62019999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -717,8 +1055,25 @@
       <c r="F12">
         <v>8.9562493071341398E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="R12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -737,8 +1092,29 @@
       <c r="F13">
         <v>0.106679637194208</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>0.54760763287562897</v>
+      </c>
+      <c r="M13">
+        <v>0.10290330487098601</v>
+      </c>
+      <c r="O13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13">
+        <v>0.66220000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -757,21 +1133,59 @@
       <c r="F14">
         <v>2.93586109721767</v>
       </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>25.015701219254101</v>
+      </c>
+      <c r="M14">
+        <v>3.11359324827521</v>
+      </c>
+      <c r="O14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14">
+        <v>16.4711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="S15" s="3"/>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F18" s="3"/>
+      <c r="Q18" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>